--- a/documentation/planning.xlsx
+++ b/documentation/planning.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38563C21-A25F-4751-8E58-2C7568DB1A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD4A5FEA-1B98-4723-8897-DAE3721E6249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlanningProjet" sheetId="11" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -222,6 +222,21 @@
   </si>
   <si>
     <t>Baptiste+Théo</t>
+  </si>
+  <si>
+    <t>Plannig réel</t>
+  </si>
+  <si>
+    <t>Baptiste+Théo+Arthur</t>
+  </si>
+  <si>
+    <t>Théo+Baptiste</t>
+  </si>
+  <si>
+    <t>Arthur+Baptiste</t>
+  </si>
+  <si>
+    <t>Equilibrage</t>
   </si>
 </sst>
 </file>
@@ -238,7 +253,7 @@
     <numFmt numFmtId="168" formatCode="d\ mmm\ yyyy"/>
     <numFmt numFmtId="169" formatCode="d"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,6 +500,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -1008,9 +1030,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,6 +1184,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1786,48 +1806,51 @@
   </sheetPr>
   <dimension ref="A1:BK20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" hidden="1" customWidth="1"/>
-    <col min="8" max="63" width="2.54296875" customWidth="1"/>
-    <col min="68" max="69" width="10.26953125"/>
+    <col min="1" max="1" width="2.77734375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="63" width="2.5546875" customWidth="1"/>
+    <col min="68" max="69" width="10.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="1"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="19"/>
+      <c r="E1" s="18"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="47"/>
+      <c r="H1" s="46"/>
     </row>
-    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="H2" s="62"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="61"/>
     </row>
-    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="60" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="66">
@@ -1835,14 +1858,14 @@
       </c>
       <c r="E3" s="66"/>
     </row>
-    <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="H4" s="63">
@@ -1926,1321 +1949,1397 @@
       <c r="BJ4" s="64"/>
       <c r="BK4" s="65"/>
     </row>
-    <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="H5" s="58">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="H5" s="57">
         <f>Début_Projet-WEEKDAY(Début_Projet,1)+2+7*(Semaine_Affichage-1)</f>
         <v>45761</v>
       </c>
-      <c r="I5" s="59">
+      <c r="I5" s="58">
         <f>H5+1</f>
         <v>45762</v>
       </c>
-      <c r="J5" s="59">
+      <c r="J5" s="58">
         <f t="shared" ref="J5:AW5" si="0">I5+1</f>
         <v>45763</v>
       </c>
-      <c r="K5" s="59">
+      <c r="K5" s="58">
         <f t="shared" si="0"/>
         <v>45764</v>
       </c>
-      <c r="L5" s="59">
+      <c r="L5" s="58">
         <f t="shared" si="0"/>
         <v>45765</v>
       </c>
-      <c r="M5" s="59">
+      <c r="M5" s="58">
         <f t="shared" si="0"/>
         <v>45766</v>
       </c>
-      <c r="N5" s="60">
+      <c r="N5" s="59">
         <f t="shared" si="0"/>
         <v>45767</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="57">
         <f>N5+1</f>
         <v>45768</v>
       </c>
-      <c r="P5" s="59">
+      <c r="P5" s="58">
         <f>O5+1</f>
         <v>45769</v>
       </c>
-      <c r="Q5" s="59">
+      <c r="Q5" s="58">
         <f t="shared" si="0"/>
         <v>45770</v>
       </c>
-      <c r="R5" s="59">
+      <c r="R5" s="58">
         <f t="shared" si="0"/>
         <v>45771</v>
       </c>
-      <c r="S5" s="59">
+      <c r="S5" s="58">
         <f t="shared" si="0"/>
         <v>45772</v>
       </c>
-      <c r="T5" s="59">
+      <c r="T5" s="58">
         <f t="shared" si="0"/>
         <v>45773</v>
       </c>
-      <c r="U5" s="60">
+      <c r="U5" s="59">
         <f t="shared" si="0"/>
         <v>45774</v>
       </c>
-      <c r="V5" s="58">
+      <c r="V5" s="57">
         <f>U5+1</f>
         <v>45775</v>
       </c>
-      <c r="W5" s="59">
+      <c r="W5" s="58">
         <f>V5+1</f>
         <v>45776</v>
       </c>
-      <c r="X5" s="59">
+      <c r="X5" s="58">
         <f t="shared" si="0"/>
         <v>45777</v>
       </c>
-      <c r="Y5" s="59">
+      <c r="Y5" s="58">
         <f t="shared" si="0"/>
         <v>45778</v>
       </c>
-      <c r="Z5" s="59">
+      <c r="Z5" s="58">
         <f t="shared" si="0"/>
         <v>45779</v>
       </c>
-      <c r="AA5" s="59">
+      <c r="AA5" s="58">
         <f t="shared" si="0"/>
         <v>45780</v>
       </c>
-      <c r="AB5" s="60">
+      <c r="AB5" s="59">
         <f t="shared" si="0"/>
         <v>45781</v>
       </c>
-      <c r="AC5" s="58">
+      <c r="AC5" s="57">
         <f>AB5+1</f>
         <v>45782</v>
       </c>
-      <c r="AD5" s="59">
+      <c r="AD5" s="58">
         <f>AC5+1</f>
         <v>45783</v>
       </c>
-      <c r="AE5" s="59">
+      <c r="AE5" s="58">
         <f t="shared" si="0"/>
         <v>45784</v>
       </c>
-      <c r="AF5" s="59">
+      <c r="AF5" s="58">
         <f t="shared" si="0"/>
         <v>45785</v>
       </c>
-      <c r="AG5" s="59">
+      <c r="AG5" s="58">
         <f t="shared" si="0"/>
         <v>45786</v>
       </c>
-      <c r="AH5" s="59">
+      <c r="AH5" s="58">
         <f t="shared" si="0"/>
         <v>45787</v>
       </c>
-      <c r="AI5" s="60">
+      <c r="AI5" s="59">
         <f t="shared" si="0"/>
         <v>45788</v>
       </c>
-      <c r="AJ5" s="58">
+      <c r="AJ5" s="57">
         <f>AI5+1</f>
         <v>45789</v>
       </c>
-      <c r="AK5" s="59">
+      <c r="AK5" s="58">
         <f>AJ5+1</f>
         <v>45790</v>
       </c>
-      <c r="AL5" s="59">
+      <c r="AL5" s="58">
         <f t="shared" si="0"/>
         <v>45791</v>
       </c>
-      <c r="AM5" s="59">
+      <c r="AM5" s="58">
         <f t="shared" si="0"/>
         <v>45792</v>
       </c>
-      <c r="AN5" s="59">
+      <c r="AN5" s="58">
         <f t="shared" si="0"/>
         <v>45793</v>
       </c>
-      <c r="AO5" s="59">
+      <c r="AO5" s="58">
         <f t="shared" si="0"/>
         <v>45794</v>
       </c>
-      <c r="AP5" s="60">
+      <c r="AP5" s="59">
         <f t="shared" si="0"/>
         <v>45795</v>
       </c>
-      <c r="AQ5" s="58">
+      <c r="AQ5" s="57">
         <f>AP5+1</f>
         <v>45796</v>
       </c>
-      <c r="AR5" s="59">
+      <c r="AR5" s="58">
         <f>AQ5+1</f>
         <v>45797</v>
       </c>
-      <c r="AS5" s="59">
+      <c r="AS5" s="58">
         <f t="shared" si="0"/>
         <v>45798</v>
       </c>
-      <c r="AT5" s="59">
+      <c r="AT5" s="58">
         <f t="shared" si="0"/>
         <v>45799</v>
       </c>
-      <c r="AU5" s="59">
+      <c r="AU5" s="58">
         <f t="shared" si="0"/>
         <v>45800</v>
       </c>
-      <c r="AV5" s="59">
+      <c r="AV5" s="58">
         <f t="shared" si="0"/>
         <v>45801</v>
       </c>
-      <c r="AW5" s="60">
+      <c r="AW5" s="59">
         <f t="shared" si="0"/>
         <v>45802</v>
       </c>
-      <c r="AX5" s="58">
+      <c r="AX5" s="57">
         <f>AW5+1</f>
         <v>45803</v>
       </c>
-      <c r="AY5" s="59">
+      <c r="AY5" s="58">
         <f>AX5+1</f>
         <v>45804</v>
       </c>
-      <c r="AZ5" s="59">
+      <c r="AZ5" s="58">
         <f t="shared" ref="AZ5:BD5" si="1">AY5+1</f>
         <v>45805</v>
       </c>
-      <c r="BA5" s="59">
+      <c r="BA5" s="58">
         <f t="shared" si="1"/>
         <v>45806</v>
       </c>
-      <c r="BB5" s="59">
+      <c r="BB5" s="58">
         <f t="shared" si="1"/>
         <v>45807</v>
       </c>
-      <c r="BC5" s="59">
+      <c r="BC5" s="58">
         <f t="shared" si="1"/>
         <v>45808</v>
       </c>
-      <c r="BD5" s="60">
+      <c r="BD5" s="59">
         <f t="shared" si="1"/>
         <v>45809</v>
       </c>
-      <c r="BE5" s="58">
+      <c r="BE5" s="57">
         <f>BD5+1</f>
         <v>45810</v>
       </c>
-      <c r="BF5" s="59">
+      <c r="BF5" s="58">
         <f>BE5+1</f>
         <v>45811</v>
       </c>
-      <c r="BG5" s="59">
+      <c r="BG5" s="58">
         <f t="shared" ref="BG5:BK5" si="2">BF5+1</f>
         <v>45812</v>
       </c>
-      <c r="BH5" s="59">
+      <c r="BH5" s="58">
         <f t="shared" si="2"/>
         <v>45813</v>
       </c>
-      <c r="BI5" s="59">
+      <c r="BI5" s="58">
         <f t="shared" si="2"/>
         <v>45814</v>
       </c>
-      <c r="BJ5" s="59">
+      <c r="BJ5" s="58">
         <f t="shared" si="2"/>
         <v>45815</v>
       </c>
-      <c r="BK5" s="60">
+      <c r="BK5" s="59">
         <f t="shared" si="2"/>
         <v>45816</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="10" t="str">
+      <c r="H6" s="9" t="str">
         <f t="shared" ref="H6:AM6" si="3">LEFT(TEXT(H5,"jjj"),1)</f>
         <v>l</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>l</v>
       </c>
-      <c r="P6" s="10" t="str">
+      <c r="P6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="Q6" s="10" t="str">
+      <c r="Q6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="R6" s="10" t="str">
+      <c r="R6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="S6" s="10" t="str">
+      <c r="S6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="T6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="U6" s="10" t="str">
+      <c r="U6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
-      <c r="V6" s="10" t="str">
+      <c r="V6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>l</v>
       </c>
-      <c r="W6" s="10" t="str">
+      <c r="W6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="X6" s="10" t="str">
+      <c r="X6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="Y6" s="10" t="str">
+      <c r="Y6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="Z6" s="10" t="str">
+      <c r="Z6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="AA6" s="10" t="str">
+      <c r="AA6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="AB6" s="10" t="str">
+      <c r="AB6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
-      <c r="AC6" s="10" t="str">
+      <c r="AC6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>l</v>
       </c>
-      <c r="AD6" s="10" t="str">
+      <c r="AD6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="AE6" s="10" t="str">
+      <c r="AE6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="AF6" s="10" t="str">
+      <c r="AF6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="AG6" s="10" t="str">
+      <c r="AG6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>v</v>
       </c>
-      <c r="AH6" s="10" t="str">
+      <c r="AH6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>s</v>
       </c>
-      <c r="AI6" s="10" t="str">
+      <c r="AI6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>d</v>
       </c>
-      <c r="AJ6" s="10" t="str">
+      <c r="AJ6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>l</v>
       </c>
-      <c r="AK6" s="10" t="str">
+      <c r="AK6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="AL6" s="10" t="str">
+      <c r="AL6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>m</v>
       </c>
-      <c r="AM6" s="10" t="str">
+      <c r="AM6" s="9" t="str">
         <f t="shared" si="3"/>
         <v>j</v>
       </c>
-      <c r="AN6" s="10" t="str">
+      <c r="AN6" s="9" t="str">
         <f t="shared" ref="AN6:BK6" si="4">LEFT(TEXT(AN5,"jjj"),1)</f>
         <v>v</v>
       </c>
-      <c r="AO6" s="10" t="str">
+      <c r="AO6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AP6" s="10" t="str">
+      <c r="AP6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="AQ6" s="10" t="str">
+      <c r="AQ6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="AR6" s="10" t="str">
+      <c r="AR6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="AS6" s="10" t="str">
+      <c r="AS6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="AT6" s="10" t="str">
+      <c r="AT6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="AU6" s="10" t="str">
+      <c r="AU6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="AV6" s="10" t="str">
+      <c r="AV6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="AW6" s="10" t="str">
+      <c r="AW6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="AX6" s="10" t="str">
+      <c r="AX6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="AY6" s="10" t="str">
+      <c r="AY6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="AZ6" s="10" t="str">
+      <c r="AZ6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="BA6" s="10" t="str">
+      <c r="BA6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="BB6" s="10" t="str">
+      <c r="BB6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="BC6" s="10" t="str">
+      <c r="BC6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="BD6" s="10" t="str">
+      <c r="BD6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
-      <c r="BE6" s="10" t="str">
+      <c r="BE6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>l</v>
       </c>
-      <c r="BF6" s="10" t="str">
+      <c r="BF6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="BG6" s="10" t="str">
+      <c r="BG6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="BH6" s="10" t="str">
+      <c r="BH6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="BI6" s="10" t="str">
+      <c r="BI6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>v</v>
       </c>
-      <c r="BJ6" s="10" t="str">
+      <c r="BJ6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>s</v>
       </c>
-      <c r="BK6" s="10" t="str">
+      <c r="BK6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:63" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7"/>
       <c r="G7" t="str">
         <f>IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="17"/>
-      <c r="AP7" s="17"/>
-      <c r="AQ7" s="17"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="17"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="17"/>
-      <c r="AW7" s="17"/>
-      <c r="AX7" s="17"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="17"/>
-      <c r="BA7" s="17"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="17"/>
-      <c r="BD7" s="17"/>
-      <c r="BE7" s="17"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="17"/>
-      <c r="BH7" s="17"/>
-      <c r="BI7" s="17"/>
-      <c r="BJ7" s="17"/>
-      <c r="BK7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="16"/>
+      <c r="AJ7" s="16"/>
+      <c r="AK7" s="16"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="16"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="16"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="16"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
     </row>
-    <row r="8" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="str">
-        <f t="shared" ref="G8:G17" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+      <c r="C8" s="36"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="str">
+        <f t="shared" ref="G8:G18" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="17"/>
-      <c r="AQ8" s="17"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="17"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="17"/>
-      <c r="AW8" s="17"/>
-      <c r="AX8" s="17"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="17"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
-      <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="17"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="16"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="16"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="16"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
     </row>
-    <row r="9" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="C9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="50">
         <f>Début_Projet</f>
         <v>45763</v>
       </c>
-      <c r="E9" s="51">
-        <f>D9+25</f>
-        <v>45788</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13">
+      <c r="E9" s="50">
+        <f>D9+24</f>
+        <v>45787</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17"/>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17"/>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17"/>
-      <c r="BK9" s="17"/>
+        <v>25</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="16"/>
+      <c r="AJ9" s="16"/>
+      <c r="AK9" s="16"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
     </row>
-    <row r="10" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <f>Début_Projet</f>
         <v>45763</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <f>D10+23</f>
         <v>45786</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="17"/>
-      <c r="AP10" s="17"/>
-      <c r="AQ10" s="17"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="17"/>
-      <c r="AW10" s="17"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="17"/>
-      <c r="BE10" s="17"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="17"/>
-      <c r="BH10" s="17"/>
-      <c r="BI10" s="17"/>
-      <c r="BJ10" s="17"/>
-      <c r="BK10" s="17"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
     </row>
-    <row r="11" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="43" t="s">
+    <row r="11" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="29"/>
+      <c r="B11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="51">
+      <c r="C11" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="50">
         <v>45772</v>
       </c>
-      <c r="E11" s="51">
-        <f>D11+4</f>
-        <v>45776</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
+      <c r="E11" s="50">
+        <f>D11+6</f>
+        <v>45778</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="17"/>
-      <c r="AP11" s="17"/>
-      <c r="AQ11" s="17"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
-      <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
-      <c r="AV11" s="17"/>
-      <c r="AW11" s="17"/>
-      <c r="AX11" s="17"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="17"/>
-      <c r="BE11" s="17"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="17"/>
-      <c r="BH11" s="17"/>
-      <c r="BI11" s="17"/>
-      <c r="BJ11" s="17"/>
-      <c r="BK11" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
     </row>
-    <row r="12" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="str">
+      <c r="C12" s="38"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="17"/>
-      <c r="AP12" s="17"/>
-      <c r="AQ12" s="17"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="17"/>
-      <c r="BE12" s="17"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="17"/>
-      <c r="BH12" s="17"/>
-      <c r="BI12" s="17"/>
-      <c r="BJ12" s="17"/>
-      <c r="BK12" s="17"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
     </row>
-    <row r="13" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
-      <c r="B13" s="44" t="s">
+    <row r="13" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
+      <c r="B13" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="54">
+      <c r="D13" s="53">
         <f>E9+1</f>
-        <v>45789</v>
-      </c>
-      <c r="E13" s="54">
+        <v>45788</v>
+      </c>
+      <c r="E13" s="53">
         <f>D13+14</f>
-        <v>45803</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+        <v>45802</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="17"/>
-      <c r="AP13" s="17"/>
-      <c r="AQ13" s="17"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
-      <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
-      <c r="AV13" s="17"/>
-      <c r="AW13" s="17"/>
-      <c r="AX13" s="17"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="17"/>
-      <c r="BE13" s="17"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="17"/>
-      <c r="BH13" s="17"/>
-      <c r="BI13" s="17"/>
-      <c r="BJ13" s="17"/>
-      <c r="BK13" s="17"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
     </row>
-    <row r="14" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30"/>
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="53">
         <f>D13</f>
-        <v>45789</v>
-      </c>
-      <c r="E14" s="54">
-        <f>D14+9</f>
+        <v>45788</v>
+      </c>
+      <c r="E14" s="53">
+        <f>D14+10</f>
         <v>45798</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="17"/>
-      <c r="AP14" s="17"/>
-      <c r="AQ14" s="17"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
+        <v>11</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
+      <c r="AJ14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
     </row>
-    <row r="15" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30"/>
-      <c r="B15" s="44" t="s">
+    <row r="15" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="29"/>
+      <c r="B15" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="54">
+      <c r="C15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="53">
         <f>E13</f>
-        <v>45803</v>
-      </c>
-      <c r="E15" s="54">
-        <f>D15+14</f>
-        <v>45817</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="17"/>
-      <c r="AP15" s="17"/>
-      <c r="AQ15" s="17"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
-      <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
-      <c r="AV15" s="17"/>
-      <c r="AW15" s="17"/>
-      <c r="AX15" s="17"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="17"/>
-      <c r="BE15" s="17"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="17"/>
-      <c r="BH15" s="17"/>
-      <c r="BI15" s="17"/>
-      <c r="BJ15" s="17"/>
-      <c r="BK15" s="17"/>
+        <v>45802</v>
+      </c>
+      <c r="E15" s="53">
+        <f>D15+7</f>
+        <v>45809</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="16"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="16"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="16"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="16"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="16"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16"/>
     </row>
-    <row r="16" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13" t="str">
+      <c r="C16" s="40"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-      <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
-      <c r="AV16" s="17"/>
-      <c r="AW16" s="17"/>
-      <c r="AX16" s="17"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="17"/>
-      <c r="BE16" s="17"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="17"/>
-      <c r="BH16" s="17"/>
-      <c r="BI16" s="17"/>
-      <c r="BJ16" s="17"/>
-      <c r="BK16" s="17"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="16"/>
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="16"/>
+      <c r="AI16" s="16"/>
+      <c r="AJ16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="16"/>
+      <c r="BB16" s="16"/>
+      <c r="BC16" s="16"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="16"/>
+      <c r="BI16" s="16"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="16"/>
     </row>
-    <row r="17" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="45" t="s">
+    <row r="17" spans="1:63" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+      <c r="B17" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="57">
-        <f>E15</f>
-        <v>45817</v>
-      </c>
-      <c r="E17" s="57">
-        <f>D17+14</f>
-        <v>45831</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="C17" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="56">
+        <f>D13</f>
+        <v>45788</v>
+      </c>
+      <c r="E17" s="56">
+        <f>D17+20</f>
+        <v>45808</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="17"/>
-      <c r="AW17" s="17"/>
-      <c r="AX17" s="17"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="17"/>
-      <c r="BE17" s="17"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="17"/>
-      <c r="BH17" s="17"/>
-      <c r="BI17" s="17"/>
-      <c r="BJ17" s="17"/>
-      <c r="BK17" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="16"/>
+      <c r="AF17" s="16"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
     </row>
-    <row r="18" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F18" s="6"/>
+    <row r="18" spans="1:63" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="56">
+        <f>D11</f>
+        <v>45772</v>
+      </c>
+      <c r="E18" s="56">
+        <f>D11+37</f>
+        <v>45809</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="16"/>
+      <c r="AF18" s="16"/>
+      <c r="AG18" s="16"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="16"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="16"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
     </row>
-    <row r="19" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="11"/>
-      <c r="E19" s="32"/>
+    <row r="19" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="10"/>
+      <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="12"/>
+    <row r="20" spans="1:63" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3254,12 +3353,12 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BK17">
+  <conditionalFormatting sqref="H5:BK18">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK17">
+  <conditionalFormatting sqref="H7:BK18">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(début_tâche&lt;=H$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=H$5)</formula>
     </cfRule>
@@ -3290,87 +3389,87 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.7265625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="90.77734375" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="22" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:2" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="20"/>
     </row>
-    <row r="3" spans="1:2" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:2" s="25" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
     </row>
-    <row r="4" spans="1:2" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:2" s="22" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A4" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="20" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:2" s="19" customFormat="1" ht="205.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:2" s="22" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A8" s="23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="58" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="20" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:2" s="19" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A11" s="24" t="s">
+    <row r="11" spans="1:2" s="22" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A11" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="20" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:2" s="19" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="23" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:2" s="22" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A14" s="23" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>33</v>
       </c>
     </row>
